--- a/cam5_validation_result.xlsx
+++ b/cam5_validation_result.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75564ACB-6EB2-47D7-8C03-B81C4AB9127A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2391D0-E323-4195-AC0C-FCD5B6DC044B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{881C3AA4-D9B5-48D7-A28A-496FB40BECDD}"/>
+    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{881C3AA4-D9B5-48D7-A28A-496FB40BECDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -142,6 +145,1730 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>2.2514582982835236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2985516528719927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1773051394966387</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4494189481538342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3250271601764325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34793469608848682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41956669783075995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4319487574430241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0322144888236835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4210796647685129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1113913601402601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0252870872059248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5666253085391872</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9783856111607747</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9470109590924949</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9102009807870672</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4456596206046015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7247641629910504</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3821952016310206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6415903870579314</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2736338321292351</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6540673493182112</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2962358628146831</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4666371573139259</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4941049873596057</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6387856516107604</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4819978012433239</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4271177696264203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3456617255424135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3330489220370509</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6241319909668164</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2955567033113766</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4116253104157295</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8524919109036091</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2626353646105599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.4204500398509481</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.058581720996699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3319073655975444</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3165970426293825</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4248134873278104</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6987604471441955</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6770793193636564</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2096791843805477</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4485478009664803</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2378049971857763</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3763431489710456</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6855658877334463</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7279191521770372</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2453380670308434</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7572836623298826</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.6572499006056205</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7869622998609884</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2297016316979352</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1928696015747846</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.36635516358501263</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1145501871419583</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4358389437729784</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.369508091768239</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.1012405947485604</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9488996387667612</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0418814661275064</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3552060006663851</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.33799432763134973</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.40073510613319741</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5000356127961822</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0538329401124429</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1924418599960518</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8826772658526352</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.42458091989192326</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4622004250245482</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0829855500719532</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.59060493243305245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9961-4DDB-B24B-3954BAB02E19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="56913072"/>
+        <c:axId val="56914736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56913072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56914736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56914736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56913072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{85A28AFB-E7E8-4F1E-ACA2-4607FB55901B}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>451757</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="图表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BC6D1B-4876-4086-9CE5-B5637CFA2213}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4936671" y="3929743"/>
+              <a:ext cx="5148943" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C1CC12-335B-4009-A7C8-5A3D9838056A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,6 +2175,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -471,48 +2201,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2548.9359296930274</v>
+        <v>2553.1514582982836</v>
       </c>
       <c r="D2">
-        <v>-3.7940281171082856E-2</v>
+        <v>2.0109355169415162E-3</v>
       </c>
       <c r="E2">
-        <v>0.93592969302744677</v>
+        <v>2.2514582982835236</v>
       </c>
       <c r="F2">
-        <v>-3.7940281171082856E-2</v>
+        <v>2.0109355169415162E-3</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.60635174033461681</v>
+        <v>1.7762551709207817</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B3">
-        <v>-15.93</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C3">
-        <v>2548.5856230517852</v>
+        <v>2554.1985516528721</v>
       </c>
       <c r="D3">
-        <v>-15.751637632781469</v>
+        <v>-16.067933202188154</v>
       </c>
       <c r="E3">
-        <v>0.58562305178520546</v>
+        <v>3.2985516528719927</v>
       </c>
       <c r="F3">
-        <v>0.17836236721853105</v>
+        <v>1.2066797811844054E-2</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -523,1424 +2253,1425 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B4">
-        <v>-14.05</v>
+        <v>-13.98</v>
       </c>
       <c r="C4">
-        <v>2548.2244815583244</v>
+        <v>2553.0773051394967</v>
       </c>
       <c r="D4">
-        <v>-13.945010308617432</v>
+        <v>-13.953634944437958</v>
       </c>
       <c r="E4">
-        <v>0.22448155832444172</v>
+        <v>2.1773051394966387</v>
       </c>
       <c r="F4">
-        <v>0.10498969138256875</v>
+        <v>2.6365055562042272E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B5">
-        <v>-12.02</v>
+        <v>-11.93</v>
       </c>
       <c r="C5">
-        <v>2547.7888497894828</v>
+        <v>2552.3494189481539</v>
       </c>
       <c r="D5">
-        <v>-11.947528783449018</v>
+        <v>-11.927489651608417</v>
       </c>
       <c r="E5">
-        <v>-0.21115021051718941</v>
+        <v>1.4494189481538342</v>
       </c>
       <c r="F5">
-        <v>7.2471216550981765E-2</v>
+        <v>2.5103483915831504E-3</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B6">
-        <v>-10</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C6">
-        <v>2548.8641081970063</v>
+        <v>2552.2250271601765</v>
       </c>
       <c r="D6">
-        <v>-9.9834009620479982</v>
+        <v>-9.9634653822781871</v>
       </c>
       <c r="E6">
-        <v>0.86410819700631691</v>
+        <v>1.3250271601764325</v>
       </c>
       <c r="F6">
-        <v>1.6599037952001794E-2</v>
+        <v>-1.3465382278187832E-2</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.4218071677819353</v>
+        <v>3.2985516528719927</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B7">
-        <v>-8.02</v>
+        <v>-7.93</v>
       </c>
       <c r="C7">
-        <v>2547.9991478740567</v>
+        <v>2551.2479346960886</v>
       </c>
       <c r="D7">
-        <v>-8.014543361313363</v>
+        <v>-7.9372931957437078</v>
       </c>
       <c r="E7">
-        <v>-8.5212594331096625E-4</v>
+        <v>0.34793469608848682</v>
       </c>
       <c r="F7">
-        <v>5.4566386866365946E-3</v>
+        <v>-7.2931957437081252E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B8">
-        <v>-6.02</v>
+        <v>-5.93</v>
       </c>
       <c r="C8">
-        <v>2548.8656491869856</v>
+        <v>2551.3195666978309</v>
       </c>
       <c r="D8">
-        <v>-6.0414283111165314</v>
+        <v>-5.9491457343021761</v>
       </c>
       <c r="E8">
-        <v>0.86564918698559268</v>
+        <v>0.41956669783075995</v>
       </c>
       <c r="F8">
-        <v>-2.1428311116531873E-2</v>
+        <v>-1.9145734302176365E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B9">
-        <v>-4.0199999999999996</v>
+        <v>-3.93</v>
       </c>
       <c r="C9">
-        <v>2548.7432819658566</v>
+        <v>2552.3319487574431</v>
       </c>
       <c r="D9">
-        <v>-4.0577786535873468</v>
+        <v>-3.9417620806470079</v>
       </c>
       <c r="E9">
-        <v>0.74328196585656769</v>
+        <v>1.4319487574430241</v>
       </c>
       <c r="F9">
-        <v>-3.7778653587347222E-2</v>
+        <v>-1.1762080647007789E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B10">
-        <v>-2.02</v>
+        <v>-1.93</v>
       </c>
       <c r="C10">
-        <v>2548.45136207427</v>
+        <v>2551.9322144888238</v>
       </c>
       <c r="D10">
-        <v>-2.0655028297624587</v>
+        <v>-1.9339798221165381</v>
       </c>
       <c r="E10">
-        <v>0.45136207427003683</v>
+        <v>1.0322144888236835</v>
       </c>
       <c r="F10">
-        <v>-4.5502829762458674E-2</v>
+        <v>-3.9798221165381342E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B11">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="C11">
-        <v>2548.7889183966586</v>
+        <v>2552.3210796647686</v>
       </c>
       <c r="D11">
-        <v>-7.2551055150871402E-2</v>
+        <v>6.2862519448584356E-2</v>
       </c>
       <c r="E11">
-        <v>0.78891839665857333</v>
+        <v>1.4210796647685129</v>
       </c>
       <c r="F11">
-        <v>-2.2551055150871399E-2</v>
+        <v>1.2862519448584353E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B12">
-        <v>1.98</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C12">
-        <v>2549.2273080922264</v>
+        <v>2552.0113913601404</v>
       </c>
       <c r="D12">
-        <v>1.9499474960746934</v>
+        <v>2.1024314751953206</v>
       </c>
       <c r="E12">
-        <v>1.2273080922263944</v>
+        <v>1.1113913601402601</v>
       </c>
       <c r="F12">
-        <v>-3.0052503925306562E-2</v>
+        <v>3.2431475195320747E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B13">
-        <v>3.95</v>
+        <v>4.07</v>
       </c>
       <c r="C13">
-        <v>2548.4846480649044</v>
+        <v>2552.925287087206</v>
       </c>
       <c r="D13">
-        <v>3.9328413487635565</v>
+        <v>4.0836322451173244</v>
       </c>
       <c r="E13">
-        <v>0.48464806490437695</v>
+        <v>2.0252870872059248</v>
       </c>
       <c r="F13">
-        <v>-1.7158651236443667E-2</v>
+        <v>1.3632245117324082E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B14">
-        <v>5.95</v>
+        <v>6.07</v>
       </c>
       <c r="C14">
-        <v>2548.9910849975186</v>
+        <v>2553.4666253085393</v>
       </c>
       <c r="D14">
-        <v>5.9407745448172378</v>
+        <v>6.0902551229908637</v>
       </c>
       <c r="E14">
-        <v>0.99108499751855561</v>
+        <v>2.5666253085391872</v>
       </c>
       <c r="F14">
-        <v>-9.2254551827624098E-3</v>
+        <v>2.0255122990863406E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B15">
-        <v>7.93</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C15">
-        <v>2547.876864076371</v>
+        <v>2552.8783856111609</v>
       </c>
       <c r="D15">
-        <v>7.9463693670706679</v>
+        <v>8.0810772355634235</v>
       </c>
       <c r="E15">
-        <v>-0.12313592362897907</v>
+        <v>1.9783856111607747</v>
       </c>
       <c r="F15">
-        <v>1.6369367070668162E-2</v>
+        <v>3.1077235563422789E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B16">
-        <v>9.93</v>
+        <v>10.07</v>
       </c>
       <c r="C16">
-        <v>2548.2462073593242</v>
+        <v>2552.8470109590926</v>
       </c>
       <c r="D16">
-        <v>9.9654251391937194</v>
+        <v>10.092217126045531</v>
       </c>
       <c r="E16">
-        <v>0.24620735932421667</v>
+        <v>1.9470109590924949</v>
       </c>
       <c r="F16">
-        <v>3.5425139193719701E-2</v>
+        <v>2.2217126045530833E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B17">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="C17">
-        <v>2548.7523600277864</v>
+        <v>2552.8102009807872</v>
       </c>
       <c r="D17">
-        <v>11.981053997565519</v>
+        <v>12.069217115291773</v>
       </c>
       <c r="E17">
-        <v>0.75236002778638067</v>
+        <v>1.9102009807870672</v>
       </c>
       <c r="F17">
-        <v>5.1053997565519538E-2</v>
+        <v>-3.0782884708226987E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B18">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C18">
-        <v>2547.8314566868926</v>
+        <v>2553.3456596206047</v>
       </c>
       <c r="D18">
-        <v>13.985785967655323</v>
+        <v>13.993442063145679</v>
       </c>
       <c r="E18">
-        <v>-0.16854331310742054</v>
+        <v>2.4456596206046015</v>
       </c>
       <c r="F18">
-        <v>8.5785967655322537E-2</v>
+        <v>-0.1065579368543208</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2548</v>
+        <v>2550.9</v>
       </c>
       <c r="B19">
-        <v>15.93</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C19">
-        <v>2549.5144064512992</v>
+        <v>2553.6247641629911</v>
       </c>
       <c r="D19">
-        <v>16.006458111023075</v>
+        <v>15.928797238754479</v>
       </c>
       <c r="E19">
-        <v>1.5144064512992372</v>
+        <v>2.7247641629910504</v>
       </c>
       <c r="F19">
-        <v>7.6458111023075759E-2</v>
+        <v>-0.17120276124552269</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2647.828331552706</v>
+        <v>2652.9821952016309</v>
       </c>
       <c r="D20">
-        <v>-3.1251588590447327E-2</v>
+        <v>1.0848549179723195E-2</v>
       </c>
       <c r="E20">
-        <v>0.1283315527061859</v>
+        <v>2.3821952016310206</v>
       </c>
       <c r="F20">
-        <v>-3.1251588590447327E-2</v>
+        <v>1.0848549179723195E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B21">
-        <v>-15.93</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C21">
-        <v>2648.5506765688883</v>
+        <v>2653.2415903870578</v>
       </c>
       <c r="D21">
-        <v>-15.742737256571372</v>
+        <v>-16.098369987116161</v>
       </c>
       <c r="E21">
-        <v>0.85067656888850252</v>
+        <v>2.6415903870579314</v>
       </c>
       <c r="F21">
-        <v>0.18726274342862759</v>
+        <v>1.6300128838402372E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B22">
-        <v>-14.05</v>
+        <v>-13.97</v>
       </c>
       <c r="C22">
-        <v>2648.1910499430787</v>
+        <v>2652.8736338321291</v>
       </c>
       <c r="D22">
-        <v>-13.425083294996947</v>
+        <v>-13.958710581568029</v>
       </c>
       <c r="E22">
-        <v>0.49104994307890593</v>
+        <v>2.2736338321292351</v>
       </c>
       <c r="F22">
-        <v>0.62491670500305396</v>
+        <v>1.1289418431971399E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B23">
-        <v>-12.02</v>
+        <v>-11.92</v>
       </c>
       <c r="C23">
-        <v>2648.7316625322155</v>
+        <v>2652.2540673493181</v>
       </c>
       <c r="D23">
-        <v>-11.919864547558213</v>
+        <v>-11.939866297676758</v>
       </c>
       <c r="E23">
-        <v>1.0316625322157051</v>
+        <v>1.6540673493182112</v>
       </c>
       <c r="F23">
-        <v>0.10013545244178701</v>
+        <v>-1.9866297676758293E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B24">
-        <v>-10</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C24">
-        <v>2647.7327790774116</v>
+        <v>2651.8962358628146</v>
       </c>
       <c r="D24">
-        <v>-9.9678296069412884</v>
+        <v>-9.9634689610168632</v>
       </c>
       <c r="E24">
-        <v>3.2779077411760227E-2</v>
+        <v>1.2962358628146831</v>
       </c>
       <c r="F24">
-        <v>3.217039305871161E-2</v>
+        <v>-1.3468961016863901E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B25">
-        <v>-8.02</v>
+        <v>-7.92</v>
       </c>
       <c r="C25">
-        <v>2648.4291620145418</v>
+        <v>2653.0666371573138</v>
       </c>
       <c r="D25">
-        <v>-8.013613199744249</v>
+        <v>-7.9587632025021167</v>
       </c>
       <c r="E25">
-        <v>0.72916201454199836</v>
+        <v>2.4666371573139259</v>
       </c>
       <c r="F25">
-        <v>6.3868002557505577E-3</v>
+        <v>-3.8763202502116734E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B26">
-        <v>-6.02</v>
+        <v>-5.92</v>
       </c>
       <c r="C26">
-        <v>2648.9180170398263</v>
+        <v>2652.0941049873595</v>
       </c>
       <c r="D26">
-        <v>-6.0455306822954338</v>
+        <v>-5.974340191841355</v>
       </c>
       <c r="E26">
-        <v>1.2180170398264636</v>
+        <v>1.4941049873596057</v>
       </c>
       <c r="F26">
-        <v>-2.5530682295434204E-2</v>
+        <v>-5.4340191841355079E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B27">
-        <v>-4.0199999999999996</v>
+        <v>-3.95</v>
       </c>
       <c r="C27">
-        <v>2648.1960009260179</v>
+        <v>2651.2387856516107</v>
       </c>
       <c r="D27">
-        <v>-4.0542106919846725</v>
+        <v>-3.9701959612208526</v>
       </c>
       <c r="E27">
-        <v>0.49600092601804135</v>
+        <v>0.6387856516107604</v>
       </c>
       <c r="F27">
-        <v>-3.421069198467297E-2</v>
+        <v>-2.0195961220852432E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B28">
-        <v>-2.0499999999999998</v>
+        <v>-1.92</v>
       </c>
       <c r="C28">
-        <v>2648.5439039857874</v>
+        <v>2653.0819978012432</v>
       </c>
       <c r="D28">
-        <v>-2.0762169043199847</v>
+        <v>-1.9395682884348551</v>
       </c>
       <c r="E28">
-        <v>0.8439039857876196</v>
+        <v>2.4819978012433239</v>
       </c>
       <c r="F28">
-        <v>-2.6216904319984913E-2</v>
+        <v>-1.9568288434855141E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B29">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C29">
-        <v>2648.1420063634882</v>
+        <v>2653.0271177696263</v>
       </c>
       <c r="D29">
-        <v>-4.7424878670954636E-2</v>
+        <v>5.8626919320774358E-2</v>
       </c>
       <c r="E29">
-        <v>0.44200636348841726</v>
+        <v>2.4271177696264203</v>
       </c>
       <c r="F29">
-        <v>-2.7424878670954635E-2</v>
+        <v>8.6269193207743552E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B30">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="C30">
-        <v>2647.9220604656111</v>
+        <v>2651.9456617255423</v>
       </c>
       <c r="D30">
-        <v>1.9519530673212093</v>
+        <v>2.0928060779578681</v>
       </c>
       <c r="E30">
-        <v>0.22206046561132098</v>
+        <v>1.3456617255424135</v>
       </c>
       <c r="F30">
-        <v>-2.8046932678790659E-2</v>
+        <v>1.2806077957868034E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B31">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="C31">
-        <v>2649.4220543278275</v>
+        <v>2652.933048922037</v>
       </c>
       <c r="D31">
-        <v>3.935732889949827</v>
+        <v>4.0819982144950728</v>
       </c>
       <c r="E31">
-        <v>1.7220543278276637</v>
+        <v>2.3330489220370509</v>
       </c>
       <c r="F31">
-        <v>-1.4267110050173226E-2</v>
+        <v>1.9982144950727587E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B32">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="C32">
-        <v>2648.700746649261</v>
+        <v>2652.2241319909667</v>
       </c>
       <c r="D32">
-        <v>5.9351614914466735</v>
+        <v>6.0705842187500254</v>
       </c>
       <c r="E32">
-        <v>1.0007466492611456</v>
+        <v>1.6241319909668164</v>
       </c>
       <c r="F32">
-        <v>-1.483850855332669E-2</v>
+        <v>-9.415781249974664E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B33">
-        <v>7.93</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C33">
-        <v>2648.1603080304399</v>
+        <v>2652.8955567033113</v>
       </c>
       <c r="D33">
-        <v>7.951828244028408</v>
+        <v>8.0505928003884595</v>
       </c>
       <c r="E33">
-        <v>0.46030803044004642</v>
+        <v>2.2955567033113766</v>
       </c>
       <c r="F33">
-        <v>2.1828244028408328E-2</v>
+        <v>5.9280038845876959E-4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B34">
-        <v>9.93</v>
+        <v>10.08</v>
       </c>
       <c r="C34">
-        <v>2648.443782845698</v>
+        <v>2653.0116253104156</v>
       </c>
       <c r="D34">
-        <v>9.9680082650597015</v>
+        <v>10.078724098701002</v>
       </c>
       <c r="E34">
-        <v>0.74378284569820607</v>
+        <v>2.4116253104157295</v>
       </c>
       <c r="F34">
-        <v>3.8008265059701785E-2</v>
+        <v>-1.2759012989977947E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B35">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="C35">
-        <v>2648.3561781170192</v>
+        <v>2652.4524919109035</v>
       </c>
       <c r="D35">
-        <v>11.966424031737303</v>
+        <v>12.054541904328557</v>
       </c>
       <c r="E35">
-        <v>0.65617811701940809</v>
+        <v>1.8524919109036091</v>
       </c>
       <c r="F35">
-        <v>3.6424031737302798E-2</v>
+        <v>-4.5458095671442322E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B36">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C36">
-        <v>2648.3707869124951</v>
+        <v>2651.8626353646105</v>
       </c>
       <c r="D36">
-        <v>13.981372369897947</v>
+        <v>13.996117677490306</v>
       </c>
       <c r="E36">
-        <v>0.67078691249525946</v>
+        <v>1.2626353646105599</v>
       </c>
       <c r="F36">
-        <v>8.1372369897946939E-2</v>
+        <v>-0.10388232250969409</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2647.7</v>
+        <v>2650.6</v>
       </c>
       <c r="B37">
-        <v>15.93</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="C37">
-        <v>2648.7645022060351</v>
+        <v>2654.0204500398509</v>
       </c>
       <c r="D37">
-        <v>15.999068888928022</v>
+        <v>15.938492909953336</v>
       </c>
       <c r="E37">
-        <v>1.0645022060352858</v>
+        <v>3.4204500398509481</v>
       </c>
       <c r="F37">
-        <v>6.9068888928022432E-2</v>
+        <v>-0.1415070900466624</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2747.4983551364089</v>
+        <v>2753.3585817209969</v>
       </c>
       <c r="D38">
-        <v>-2.1265416214394706E-2</v>
+        <v>9.0397726781851328E-3</v>
       </c>
       <c r="E38">
-        <v>9.8355136408827093E-2</v>
+        <v>3.058581720996699</v>
       </c>
       <c r="F38">
-        <v>-2.1265416214394706E-2</v>
+        <v>9.0397726781851328E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B39">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C39">
-        <v>2747.2120584552868</v>
+        <v>2753.6319073655977</v>
       </c>
       <c r="D39">
-        <v>-15.495126621711028</v>
+        <v>-16.096111980767592</v>
       </c>
       <c r="E39">
-        <v>-0.18794154471333968</v>
+        <v>3.3319073655975444</v>
       </c>
       <c r="F39">
-        <v>0.40487337828897196</v>
+        <v>3.8880192324093343E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B40">
-        <v>-14.05</v>
+        <v>-13.97</v>
       </c>
       <c r="C40">
-        <v>2747.7823173842266</v>
+        <v>2752.6165970426296</v>
       </c>
       <c r="D40">
-        <v>-13.952634069674399</v>
+        <v>-13.947898636113154</v>
       </c>
       <c r="E40">
-        <v>0.38231738422655326</v>
+        <v>2.3165970426293825</v>
       </c>
       <c r="F40">
-        <v>9.7365930325601369E-2</v>
+        <v>2.2101363886847025E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B41">
-        <v>-12</v>
+        <v>-11.92</v>
       </c>
       <c r="C41">
-        <v>2748.1352168454018</v>
+        <v>2751.724813487328</v>
       </c>
       <c r="D41">
-        <v>-12.048680276430492</v>
+        <v>-11.941420178424613</v>
       </c>
       <c r="E41">
-        <v>0.73521684540173737</v>
+        <v>1.4248134873278104</v>
       </c>
       <c r="F41">
-        <v>-4.8680276430491887E-2</v>
+        <v>-2.1420178424612857E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B42">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C42">
-        <v>2747.8374157337448</v>
+        <v>2750.9987604471444</v>
       </c>
       <c r="D42">
-        <v>-9.9395524995869806</v>
+        <v>-9.9749027967312891</v>
       </c>
       <c r="E42">
-        <v>0.43741573374472864</v>
+        <v>0.6987604471441955</v>
       </c>
       <c r="F42">
-        <v>9.0447500413018744E-2</v>
+        <v>-2.4902796731289811E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B43">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="C43">
-        <v>2747.7630666061427</v>
+        <v>2752.9770793193638</v>
       </c>
       <c r="D43">
-        <v>-8.0420630436445837</v>
+        <v>-7.9456645998700521</v>
       </c>
       <c r="E43">
-        <v>0.36306660614263819</v>
+        <v>2.6770793193636564</v>
       </c>
       <c r="F43">
-        <v>-4.2063043644583686E-2</v>
+        <v>-2.5664599870052207E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B44">
-        <v>-6.05</v>
+        <v>-5.95</v>
       </c>
       <c r="C44">
-        <v>2748.6396114239601</v>
+        <v>2751.5096791843807</v>
       </c>
       <c r="D44">
-        <v>-5.9945729263742988</v>
+        <v>-5.9671525601353892</v>
       </c>
       <c r="E44">
-        <v>1.2396114239600138</v>
+        <v>1.2096791843805477</v>
       </c>
       <c r="F44">
-        <v>5.5427073625700984E-2</v>
+        <v>-1.7152560135389017E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B45">
-        <v>-4.03</v>
+        <v>-3.92</v>
       </c>
       <c r="C45">
-        <v>2746.9045378539677</v>
+        <v>2751.7485478009667</v>
       </c>
       <c r="D45">
-        <v>-4.0122525138886216</v>
+        <v>-3.9377396605514012</v>
       </c>
       <c r="E45">
-        <v>-0.49546214603242333</v>
+        <v>1.4485478009664803</v>
       </c>
       <c r="F45">
-        <v>1.7747486111378663E-2</v>
+        <v>-1.7739660551401304E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B46">
-        <v>-2.0299999999999998</v>
+        <v>-1.92</v>
       </c>
       <c r="C46">
-        <v>2747.7791287948353</v>
+        <v>2752.537804997186</v>
       </c>
       <c r="D46">
-        <v>-2.0395591652396527</v>
+        <v>-1.9515399769043127</v>
       </c>
       <c r="E46">
-        <v>0.37912879483519646</v>
+        <v>2.2378049971857763</v>
       </c>
       <c r="F46">
-        <v>-9.5591652396529447E-3</v>
+        <v>-3.1539976904312761E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B47">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C47">
-        <v>2747.2677763159136</v>
+        <v>2753.6763431489712</v>
       </c>
       <c r="D47">
-        <v>-2.4627147876634791E-2</v>
+        <v>5.5085398849771136E-2</v>
       </c>
       <c r="E47">
-        <v>-0.13222368408651164</v>
+        <v>3.3763431489710456</v>
       </c>
       <c r="F47">
-        <v>5.3728521233652078E-3</v>
+        <v>5.0853988497711333E-3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B48">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="C48">
-        <v>2747.4216395177855</v>
+        <v>2751.9855658877336</v>
       </c>
       <c r="D48">
-        <v>1.9626509412394999</v>
+        <v>2.0838619358971386</v>
       </c>
       <c r="E48">
-        <v>2.1639517785388307E-2</v>
+        <v>1.6855658877334463</v>
       </c>
       <c r="F48">
-        <v>1.2650941239499947E-2</v>
+        <v>3.8619358971385687E-3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B49">
-        <v>3.97</v>
+        <v>4.08</v>
       </c>
       <c r="C49">
-        <v>2748.821807167782</v>
+        <v>2752.0279191521772</v>
       </c>
       <c r="D49">
-        <v>3.980763382378977</v>
+        <v>4.0759648096503112</v>
       </c>
       <c r="E49">
-        <v>1.4218071677819353</v>
+        <v>1.7279191521770372</v>
       </c>
       <c r="F49">
-        <v>1.0763382378976782E-2</v>
+        <v>-4.0351903496889108E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B50">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="C50">
-        <v>2747.7771144911717</v>
+        <v>2752.545338067031</v>
       </c>
       <c r="D50">
-        <v>5.9493766023244685</v>
+        <v>6.0745595159490202</v>
       </c>
       <c r="E50">
-        <v>0.37711449117159646</v>
+        <v>2.2453380670308434</v>
       </c>
       <c r="F50">
-        <v>-6.2339767553165615E-4</v>
+        <v>-5.4404840509798547E-3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B51">
-        <v>7.92</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C51">
-        <v>2747.450767587442</v>
+        <v>2753.0572836623301</v>
       </c>
       <c r="D51">
-        <v>7.9590819429070763</v>
+        <v>8.0487471843568308</v>
       </c>
       <c r="E51">
-        <v>5.0767587441896467E-2</v>
+        <v>2.7572836623298826</v>
       </c>
       <c r="F51">
-        <v>3.9081942907076339E-2</v>
+        <v>-1.2528156431699244E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B52">
-        <v>9.92</v>
+        <v>10.08</v>
       </c>
       <c r="C52">
-        <v>2748.0586573593387</v>
+        <v>2752.9572499006058</v>
       </c>
       <c r="D52">
-        <v>9.987103105176196</v>
+        <v>10.081767359646468</v>
       </c>
       <c r="E52">
-        <v>0.6586573593385765</v>
+        <v>2.6572499006056205</v>
       </c>
       <c r="F52">
-        <v>6.7103105176196109E-2</v>
+        <v>1.7673596464682362E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B53">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="C53">
-        <v>2747.2434701942448</v>
+        <v>2752.0869622998612</v>
       </c>
       <c r="D53">
-        <v>12.000326864370376</v>
+        <v>12.037427595227014</v>
       </c>
       <c r="E53">
-        <v>-0.15652980575532638</v>
+        <v>1.7869622998609884</v>
       </c>
       <c r="F53">
-        <v>8.0326864370375617E-2</v>
+        <v>-6.257240477298609E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B54">
-        <v>13.92</v>
+        <v>14.1</v>
       </c>
       <c r="C54">
-        <v>2747.5481652991862</v>
+        <v>2752.5297016316981</v>
       </c>
       <c r="D54">
-        <v>14.005851212366563</v>
+        <v>13.9976863854257</v>
       </c>
       <c r="E54">
-        <v>0.14816529918607557</v>
+        <v>2.2297016316979352</v>
       </c>
       <c r="F54">
-        <v>8.5851212366563345E-2</v>
+        <v>-0.10231361457429955</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2747.4</v>
+        <v>2750.3</v>
       </c>
       <c r="B55">
-        <v>15.92</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C55">
-        <v>2749.0423479439232</v>
+        <v>2752.492869601575</v>
       </c>
       <c r="D55">
-        <v>16.01957183122849</v>
+        <v>15.929827986093096</v>
       </c>
       <c r="E55">
-        <v>1.6423479439231414</v>
+        <v>2.1928696015747846</v>
       </c>
       <c r="F55">
-        <v>9.9571831228489671E-2</v>
+        <v>-0.17017201390690495</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2846.4964183762163</v>
+        <v>2850.366355163585</v>
       </c>
       <c r="D56">
-        <v>-1.9645475824356662E-2</v>
+        <v>1.001303558738207E-2</v>
       </c>
       <c r="E56">
-        <v>-0.60358162378361158</v>
+        <v>0.36635516358501263</v>
       </c>
       <c r="F56">
-        <v>-1.9645475824356662E-2</v>
+        <v>1.001303558738207E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B57">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C57">
-        <v>2847.5562784242511</v>
+        <v>2852.114550187142</v>
       </c>
       <c r="D57">
-        <v>-15.652401520341968</v>
+        <v>-16.104859582620424</v>
       </c>
       <c r="E57">
-        <v>0.45627842425119525</v>
+        <v>2.1145501871419583</v>
       </c>
       <c r="F57">
-        <v>0.24759847965803239</v>
+        <v>-4.8595826204227421E-3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B58">
-        <v>-14.05</v>
+        <v>-13.97</v>
       </c>
       <c r="C58">
-        <v>2847.232985979133</v>
+        <v>2851.435838943773</v>
       </c>
       <c r="D58">
-        <v>-13.694874907641983</v>
+        <v>-13.956240869749957</v>
       </c>
       <c r="E58">
-        <v>0.13298597913308186</v>
+        <v>1.4358389437729784</v>
       </c>
       <c r="F58">
-        <v>0.35512509235801737</v>
+        <v>1.3759130250043938E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B59">
-        <v>-12</v>
+        <v>-11.92</v>
       </c>
       <c r="C59">
-        <v>2848.1882777321193</v>
+        <v>2851.3695080917682</v>
       </c>
       <c r="D59">
-        <v>-11.900664912016987</v>
+        <v>-11.951923930665497</v>
       </c>
       <c r="E59">
-        <v>1.0882777321194226</v>
+        <v>1.369508091768239</v>
       </c>
       <c r="F59">
-        <v>9.9335087983012826E-2</v>
+        <v>-3.192393066549748E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B60">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C60">
-        <v>2847.8196422116807</v>
+        <v>2849.8987594052514</v>
       </c>
       <c r="D60">
-        <v>-9.9649342566649537</v>
+        <v>-9.9704852891555831</v>
       </c>
       <c r="E60">
-        <v>0.71964221168082076</v>
+        <v>-0.1012405947485604</v>
       </c>
       <c r="F60">
-        <v>6.5065743335045667E-2</v>
+        <v>-2.0485289155583786E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B61">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="C61">
-        <v>2848.4364500104716</v>
+        <v>2850.9488996387668</v>
       </c>
       <c r="D61">
-        <v>-7.9953677616856309</v>
+        <v>-7.9651801811631868</v>
       </c>
       <c r="E61">
-        <v>1.3364500104717081</v>
+        <v>0.9488996387667612</v>
       </c>
       <c r="F61">
-        <v>4.6322383143690971E-3</v>
+        <v>-4.5180181163186894E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B62">
-        <v>-6.03</v>
+        <v>-5.92</v>
       </c>
       <c r="C62">
-        <v>2848.1297771133454</v>
+        <v>2851.0418814661275</v>
       </c>
       <c r="D62">
-        <v>-6.0758345278628996</v>
+        <v>-5.9638182047133057</v>
       </c>
       <c r="E62">
-        <v>1.0297771133455171</v>
+        <v>1.0418814661275064</v>
       </c>
       <c r="F62">
-        <v>-4.5834527862899321E-2</v>
+        <v>-4.3818204713305775E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B63">
-        <v>-4.05</v>
+        <v>-3.95</v>
       </c>
       <c r="C63">
-        <v>2847.3308536227487</v>
+        <v>2851.3552060006664</v>
       </c>
       <c r="D63">
-        <v>-4.0158269006372933</v>
+        <v>-3.9815946765565227</v>
       </c>
       <c r="E63">
-        <v>0.23085362274878207</v>
+        <v>1.3552060006663851</v>
       </c>
       <c r="F63">
-        <v>3.4173099362706516E-2</v>
+        <v>-3.1594676556522483E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B64">
-        <v>-2.0299999999999998</v>
+        <v>-1.92</v>
       </c>
       <c r="C64">
-        <v>2847.9011918710603</v>
+        <v>2850.3379943276313</v>
       </c>
       <c r="D64">
-        <v>-2.007798420603482</v>
+        <v>-1.9516267485962264</v>
       </c>
       <c r="E64">
-        <v>0.80119187106038225</v>
+        <v>0.33799432763134973</v>
       </c>
       <c r="F64">
-        <v>2.220157939651779E-2</v>
+        <v>-3.1626748596226495E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B65">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C65">
-        <v>2846.6928683825972</v>
+        <v>2850.4007351061332</v>
       </c>
       <c r="D65">
-        <v>-1.786871962617894E-2</v>
+        <v>5.387003842442465E-2</v>
       </c>
       <c r="E65">
-        <v>-0.40713161740268333</v>
+        <v>0.40073510613319741</v>
       </c>
       <c r="F65">
-        <v>1.2131280373821059E-2</v>
+        <v>3.8700384244246475E-3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B66">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="C66">
-        <v>2847.7277178196287</v>
+        <v>2851.5000356127962</v>
       </c>
       <c r="D66">
-        <v>1.969390465673245</v>
+        <v>2.0620976462296663</v>
       </c>
       <c r="E66">
-        <v>0.62771781962874229</v>
+        <v>1.5000356127961822</v>
       </c>
       <c r="F66">
-        <v>-6.0953432675492358E-4</v>
+        <v>-1.7902353770333779E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B67">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="C67">
-        <v>2846.5906077488862</v>
+        <v>2851.0538329401124</v>
       </c>
       <c r="D67">
-        <v>3.9693363392559426</v>
+        <v>4.0650422987081987</v>
       </c>
       <c r="E67">
-        <v>-0.50939225111369524</v>
+        <v>1.0538329401124429</v>
       </c>
       <c r="F67">
-        <v>1.933633925594247E-2</v>
+        <v>-1.4957701291801406E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B68">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="C68">
-        <v>2846.6730413334408</v>
+        <v>2853.1924418599961</v>
       </c>
       <c r="D68">
-        <v>5.9572743108767074</v>
+        <v>6.0559027141120563</v>
       </c>
       <c r="E68">
-        <v>-0.42695866655913051</v>
+        <v>3.1924418599960518</v>
       </c>
       <c r="F68">
-        <v>7.2743108767072684E-3</v>
+        <v>-2.4097285887943798E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B69">
-        <v>7.95</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C69">
-        <v>2846.9303275209281</v>
+        <v>2851.8826772658526</v>
       </c>
       <c r="D69">
-        <v>7.9670371940588796</v>
+        <v>8.0417189006598626</v>
       </c>
       <c r="E69">
-        <v>-0.16967247907177807</v>
+        <v>1.8826772658526352</v>
       </c>
       <c r="F69">
-        <v>1.7037194058879379E-2</v>
+        <v>-8.2810993401380983E-3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B70">
-        <v>9.92</v>
+        <v>10.08</v>
       </c>
       <c r="C70">
-        <v>2847.9351277810656</v>
+        <v>2850.4245809198919</v>
       </c>
       <c r="D70">
-        <v>9.9902994901015276</v>
+        <v>10.067210326036927</v>
       </c>
       <c r="E70">
-        <v>0.83512778106569385</v>
+        <v>0.42458091989192326</v>
       </c>
       <c r="F70">
-        <v>7.0299490101527695E-2</v>
+        <v>-1.2789673963073511E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B71">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="C71">
-        <v>2846.7747390249297</v>
+        <v>2851.4622004250245</v>
       </c>
       <c r="D71">
-        <v>11.994266001262838</v>
+        <v>12.038079451205146</v>
       </c>
       <c r="E71">
-        <v>-0.32526097507025042</v>
+        <v>1.4622004250245482</v>
       </c>
       <c r="F71">
-        <v>7.4266001262838444E-2</v>
+        <v>-6.1920548794853758E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B72">
-        <v>13.92</v>
+        <v>14.1</v>
       </c>
       <c r="C72">
-        <v>2847.1753470279932</v>
+        <v>2851.082985550072</v>
       </c>
       <c r="D72">
-        <v>14.01691928069949</v>
+        <v>13.995316351397284</v>
       </c>
       <c r="E72">
-        <v>7.5347027993302618E-2</v>
+        <v>1.0829855500719532</v>
       </c>
       <c r="F72">
-        <v>9.6919280699490074E-2</v>
+        <v>-0.10468364860271606</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2847.1</v>
+        <v>2850</v>
       </c>
       <c r="B73">
-        <v>15.92</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C73">
-        <v>2848.0708493771344</v>
+        <v>2850.5906049324331</v>
       </c>
       <c r="D73">
-        <v>16.015050401064951</v>
+        <v>15.927435154754537</v>
       </c>
       <c r="E73">
-        <v>0.97084937713452746</v>
+        <v>0.59060493243305245</v>
       </c>
       <c r="F73">
-        <v>9.5050401064950663E-2</v>
+        <v>-0.17256484524546423</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cam5_validation_result.xlsx
+++ b/cam5_validation_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2391D0-E323-4195-AC0C-FCD5B6DC044B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1ADC39-A2DA-42FC-8E7B-3C637CD0E10F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{881C3AA4-D9B5-48D7-A28A-496FB40BECDD}"/>
+    <workbookView xWindow="16869" yWindow="3163" windowWidth="9265" windowHeight="13226" xr2:uid="{881C3AA4-D9B5-48D7-A28A-496FB40BECDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,220 +219,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>2.2514582982835236</c:v>
+                  <c:v>-0.23860793211315467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2985516528719927</c:v>
+                  <c:v>0.14960961758561098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1773051394966387</c:v>
+                  <c:v>0.21403969786615562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4494189481538342</c:v>
+                  <c:v>-0.79462884413078427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3250271601764325</c:v>
+                  <c:v>0.239055106226715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34793469608848682</c:v>
+                  <c:v>-0.78109633130588918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41956669783075995</c:v>
+                  <c:v>-0.22332919398013473</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4319487574430241</c:v>
+                  <c:v>-0.22213376717672872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0322144888236835</c:v>
+                  <c:v>0.19585549609200825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4210796647685129</c:v>
+                  <c:v>-0.27553335827496994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1113913601402601</c:v>
+                  <c:v>1.4125408702966524E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0252870872059248</c:v>
+                  <c:v>-0.14448551939494791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5666253085391872</c:v>
+                  <c:v>-0.29640074687904416</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9783856111607747</c:v>
+                  <c:v>-0.48562270873753732</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9470109590924949</c:v>
+                  <c:v>-0.49226084770225498</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9102009807870672</c:v>
+                  <c:v>-0.79234876681084643</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4456596206046015</c:v>
+                  <c:v>-0.20459918910955821</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7247641629910504</c:v>
+                  <c:v>0.99300218472853885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3821952016310206</c:v>
+                  <c:v>0.69698636360453747</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6415903870579314</c:v>
+                  <c:v>0.37040504689912268</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2736338321292351</c:v>
+                  <c:v>4.6668536861943721E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6540673493182112</c:v>
+                  <c:v>0.37036385889450685</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2962358628146831</c:v>
+                  <c:v>0.65109661733686153</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4666371573139259</c:v>
+                  <c:v>1.0448838388124386</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4941049873596057</c:v>
+                  <c:v>1.0488267468390404</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6387856516107604</c:v>
+                  <c:v>-0.73281861555278738</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4819978012433239</c:v>
+                  <c:v>0.20381133740465884</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4271177696264203</c:v>
+                  <c:v>-0.21488399599456898</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3456617255424135</c:v>
+                  <c:v>-0.17774824245452692</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3330489220370509</c:v>
+                  <c:v>0.32731131870832542</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6241319909668164</c:v>
+                  <c:v>0.16791613378200054</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2955567033113766</c:v>
+                  <c:v>-0.13960276073157729</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4116253104157295</c:v>
+                  <c:v>0.19253394195038709</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8524919109036091</c:v>
+                  <c:v>-1.0406708388336483</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2626353646105599</c:v>
+                  <c:v>-0.52247955822440417</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4204500398509481</c:v>
+                  <c:v>1.6330811144134714</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.058581720996699</c:v>
+                  <c:v>0.32669247359945075</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.3319073655975444</c:v>
+                  <c:v>-0.1870215350431863</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.3165970426293825</c:v>
+                  <c:v>0.57462577298883843</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4248134873278104</c:v>
+                  <c:v>-0.80631922073735041</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.6987604471441955</c:v>
+                  <c:v>0.28186331148890531</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.6770793193636564</c:v>
+                  <c:v>0.18354046177864802</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2096791843805477</c:v>
+                  <c:v>0.53230739607033684</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4485478009664803</c:v>
+                  <c:v>7.235676996424445E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2378049971857763</c:v>
+                  <c:v>0.70494916110465056</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.3763431489710456</c:v>
+                  <c:v>0.42387499203050538</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.6855658877334463</c:v>
+                  <c:v>-0.52482041019447934</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7279191521770372</c:v>
+                  <c:v>-0.24465680938010337</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2453380670308434</c:v>
+                  <c:v>-0.13683270053297747</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7572836623298826</c:v>
+                  <c:v>-0.14642804253844588</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.6572499006056205</c:v>
+                  <c:v>-0.35847362762979174</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7869622998609884</c:v>
+                  <c:v>-0.39033493885972348</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.2297016316979352</c:v>
+                  <c:v>0.27930504747064333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.1928696015747846</c:v>
+                  <c:v>0.95385888207511016</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.36635516358501263</c:v>
+                  <c:v>-0.66095659984557642</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.1145501871419583</c:v>
+                  <c:v>0.30985000812916041</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4358389437729784</c:v>
+                  <c:v>-0.2376998568606723</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.369508091768239</c:v>
+                  <c:v>-0.88075200880939519</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.1012405947485604</c:v>
+                  <c:v>0.79665259723151394</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.9488996387667612</c:v>
+                  <c:v>-0.8336326387416193</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0418814661275064</c:v>
+                  <c:v>-0.33579230504574298</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3552060006663851</c:v>
+                  <c:v>-0.4967191639043449</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.33799432763134973</c:v>
+                  <c:v>1.6174966875951213E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.40073510613319741</c:v>
+                  <c:v>-0.1891139340045811</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5000356127961822</c:v>
+                  <c:v>1.1000719304915947</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0538329401124429</c:v>
+                  <c:v>1.1303774758875988</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.1924418599960518</c:v>
+                  <c:v>-0.40326136328758366</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.8826772658526352</c:v>
+                  <c:v>0.62802957452413466</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.42458091989192326</c:v>
+                  <c:v>-0.12046436420450846</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.4622004250245482</c:v>
+                  <c:v>-1.3940516553352609</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0829855500719532</c:v>
+                  <c:v>-6.3925137312253355E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.59060493243305245</c:v>
+                  <c:v>0.71898028869190966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,9 +2168,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4F8B5E-9D24-49D1-86B1-5BCB0377250A}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
@@ -2201,1472 +2201,1832 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2553.1514582982836</v>
+        <v>2550.1613920678869</v>
       </c>
       <c r="D2">
-        <v>2.0109355169415162E-3</v>
+        <v>6.3885635555939301E-3</v>
       </c>
       <c r="E2">
-        <v>2.2514582982835236</v>
+        <v>-0.23860793211315467</v>
       </c>
       <c r="F2">
-        <v>2.0109355169415162E-3</v>
+        <v>6.3885635555939301E-3</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>1.7762551709207817</v>
+        <v>0.52146325162477503</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B3">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="C3">
-        <v>2554.1985516528721</v>
+        <v>2550.5496096175857</v>
       </c>
       <c r="D3">
-        <v>-16.067933202188154</v>
+        <v>-15.877600439564352</v>
       </c>
       <c r="E3">
-        <v>3.2985516528719927</v>
+        <v>0.14960961758561098</v>
       </c>
       <c r="F3">
-        <v>1.2066797811844054E-2</v>
+        <v>2.2399560435648169E-2</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B4">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="C4">
-        <v>2553.0773051394967</v>
+        <v>2550.6140396978662</v>
       </c>
       <c r="D4">
-        <v>-13.953634944437958</v>
+        <v>-14.099999993248332</v>
       </c>
       <c r="E4">
-        <v>2.1773051394966387</v>
+        <v>0.21403969786615562</v>
       </c>
       <c r="F4">
-        <v>2.6365055562042272E-2</v>
+        <v>6.7516676693912814E-9</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B5">
-        <v>-11.93</v>
+        <v>-12.03</v>
       </c>
       <c r="C5">
-        <v>2552.3494189481539</v>
+        <v>2549.6053711558693</v>
       </c>
       <c r="D5">
-        <v>-11.927489651608417</v>
+        <v>-12.095788659944784</v>
       </c>
       <c r="E5">
-        <v>1.4494189481538342</v>
+        <v>-0.79462884413078427</v>
       </c>
       <c r="F5">
-        <v>2.5103483915831504E-3</v>
+        <v>-6.5788659944784555E-2</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B6">
-        <v>-9.9499999999999993</v>
+        <v>-10.07</v>
       </c>
       <c r="C6">
-        <v>2552.2250271601765</v>
+        <v>2550.6390551062268</v>
       </c>
       <c r="D6">
-        <v>-9.9634653822781871</v>
+        <v>-10.1527801091414</v>
       </c>
       <c r="E6">
-        <v>1.3250271601764325</v>
+        <v>0.239055106226715</v>
       </c>
       <c r="F6">
-        <v>-1.3465382278187832E-2</v>
+        <v>-8.2780109141399549E-2</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>3.2985516528719927</v>
+        <v>1.3940516553352609</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B7">
-        <v>-7.93</v>
+        <v>-8.07</v>
       </c>
       <c r="C7">
-        <v>2551.2479346960886</v>
+        <v>2549.6189036686942</v>
       </c>
       <c r="D7">
-        <v>-7.9372931957437078</v>
+        <v>-8.169329712330601</v>
       </c>
       <c r="E7">
-        <v>0.34793469608848682</v>
+        <v>-0.78109633130588918</v>
       </c>
       <c r="F7">
-        <v>-7.2931957437081252E-3</v>
+        <v>-9.9329712330600728E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B8">
-        <v>-5.93</v>
+        <v>-6.1</v>
       </c>
       <c r="C8">
-        <v>2551.3195666978309</v>
+        <v>2550.17667080602</v>
       </c>
       <c r="D8">
-        <v>-5.9491457343021761</v>
+        <v>-6.1665239171078774</v>
       </c>
       <c r="E8">
-        <v>0.41956669783075995</v>
+        <v>-0.22332919398013473</v>
       </c>
       <c r="F8">
-        <v>-1.9145734302176365E-2</v>
+        <v>-6.652391710787775E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B9">
-        <v>-3.93</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C9">
-        <v>2552.3319487574431</v>
+        <v>2550.1778662328234</v>
       </c>
       <c r="D9">
-        <v>-3.9417620806470079</v>
+        <v>-4.1488567833401042</v>
       </c>
       <c r="E9">
-        <v>1.4319487574430241</v>
+        <v>-0.22213376717672872</v>
       </c>
       <c r="F9">
-        <v>-1.1762080647007789E-2</v>
+        <v>-4.885678334010457E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B10">
-        <v>-1.93</v>
+        <v>-2.08</v>
       </c>
       <c r="C10">
-        <v>2551.9322144888238</v>
+        <v>2550.5958554960921</v>
       </c>
       <c r="D10">
-        <v>-1.9339798221165381</v>
+        <v>-2.105615599294953</v>
       </c>
       <c r="E10">
-        <v>1.0322144888236835</v>
+        <v>0.19585549609200825</v>
       </c>
       <c r="F10">
-        <v>-3.9798221165381342E-3</v>
+        <v>-2.561559929495294E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="C11">
-        <v>2552.3210796647686</v>
+        <v>2550.1244666417251</v>
       </c>
       <c r="D11">
-        <v>6.2862519448584356E-2</v>
+        <v>-9.2076600918340343E-2</v>
       </c>
       <c r="E11">
-        <v>1.4210796647685129</v>
+        <v>-0.27553335827496994</v>
       </c>
       <c r="F11">
-        <v>1.2862519448584353E-2</v>
+        <v>-1.2076600918340341E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B12">
-        <v>2.0699999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="C12">
-        <v>2552.0113913601404</v>
+        <v>2550.4141254087031</v>
       </c>
       <c r="D12">
-        <v>2.1024314751953206</v>
+        <v>1.9563354161263553</v>
       </c>
       <c r="E12">
-        <v>1.1113913601402601</v>
+        <v>1.4125408702966524E-2</v>
       </c>
       <c r="F12">
-        <v>3.2431475195320747E-2</v>
+        <v>3.633541612635538E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B13">
-        <v>4.07</v>
+        <v>3.93</v>
       </c>
       <c r="C13">
-        <v>2552.925287087206</v>
+        <v>2550.2555144806051</v>
       </c>
       <c r="D13">
-        <v>4.0836322451173244</v>
+        <v>3.9869117287786371</v>
       </c>
       <c r="E13">
-        <v>2.0252870872059248</v>
+        <v>-0.14448551939494791</v>
       </c>
       <c r="F13">
-        <v>1.3632245117324082E-2</v>
+        <v>5.6911728778636927E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B14">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="C14">
-        <v>2553.4666253085393</v>
+        <v>2550.103599253121</v>
       </c>
       <c r="D14">
-        <v>6.0902551229908637</v>
+        <v>5.9959377855066665</v>
       </c>
       <c r="E14">
-        <v>2.5666253085391872</v>
+        <v>-0.29640074687904416</v>
       </c>
       <c r="F14">
-        <v>2.0255122990863406E-2</v>
+        <v>9.5937785506666096E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B15">
-        <v>8.0500000000000007</v>
+        <v>7.93</v>
       </c>
       <c r="C15">
-        <v>2552.8783856111609</v>
+        <v>2549.9143772912626</v>
       </c>
       <c r="D15">
-        <v>8.0810772355634235</v>
+        <v>8.0204615710853879</v>
       </c>
       <c r="E15">
-        <v>1.9783856111607747</v>
+        <v>-0.48562270873753732</v>
       </c>
       <c r="F15">
-        <v>3.1077235563422789E-2</v>
+        <v>9.0461571085388215E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B16">
-        <v>10.07</v>
+        <v>9.93</v>
       </c>
       <c r="C16">
-        <v>2552.8470109590926</v>
+        <v>2549.9077391522978</v>
       </c>
       <c r="D16">
-        <v>10.092217126045531</v>
+        <v>10.01473760949381</v>
       </c>
       <c r="E16">
-        <v>1.9470109590924949</v>
+        <v>-0.49226084770225498</v>
       </c>
       <c r="F16">
-        <v>2.2217126045530833E-2</v>
+        <v>8.4737609493810595E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B17">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="C17">
-        <v>2552.8102009807872</v>
+        <v>2549.6076512331892</v>
       </c>
       <c r="D17">
-        <v>12.069217115291773</v>
+        <v>12.002012019321093</v>
       </c>
       <c r="E17">
-        <v>1.9102009807870672</v>
+        <v>-0.79234876681084643</v>
       </c>
       <c r="F17">
-        <v>-3.0782884708226987E-2</v>
+        <v>5.2012019321093561E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B18">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="C18">
-        <v>2553.3456596206047</v>
+        <v>2550.1954008108905</v>
       </c>
       <c r="D18">
-        <v>13.993442063145679</v>
+        <v>13.949999999999996</v>
       </c>
       <c r="E18">
-        <v>2.4456596206046015</v>
+        <v>-0.20459918910955821</v>
       </c>
       <c r="F18">
-        <v>-0.1065579368543208</v>
+        <v>-3.5527136788005009E-15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2550.9</v>
+        <v>2550.4</v>
       </c>
       <c r="B19">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="C19">
-        <v>2553.6247641629911</v>
+        <v>2551.3930021847286</v>
       </c>
       <c r="D19">
-        <v>15.928797238754479</v>
+        <v>15.905341518726285</v>
       </c>
       <c r="E19">
-        <v>2.7247641629910504</v>
+        <v>0.99300218472853885</v>
       </c>
       <c r="F19">
-        <v>-0.17120276124552269</v>
+        <v>-6.4658481273715651E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2652.9821952016309</v>
+        <v>2650.7969863636044</v>
       </c>
       <c r="D20">
-        <v>1.0848549179723195E-2</v>
+        <v>1.1775580175488633E-2</v>
       </c>
       <c r="E20">
-        <v>2.3821952016310206</v>
+        <v>0.69698636360453747</v>
       </c>
       <c r="F20">
-        <v>1.0848549179723195E-2</v>
+        <v>1.1775580175488633E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B21">
-        <v>-16.100000000000001</v>
+        <v>-15.9</v>
       </c>
       <c r="C21">
-        <v>2653.2415903870578</v>
+        <v>2650.470405046899</v>
       </c>
       <c r="D21">
-        <v>-16.098369987116161</v>
+        <v>-15.839827574461982</v>
       </c>
       <c r="E21">
-        <v>2.6415903870579314</v>
+        <v>0.37040504689912268</v>
       </c>
       <c r="F21">
-        <v>1.6300128838402372E-3</v>
+        <v>6.0172425538018715E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B22">
-        <v>-13.97</v>
+        <v>-14.07</v>
       </c>
       <c r="C22">
-        <v>2652.8736338321291</v>
+        <v>2650.1466685368619</v>
       </c>
       <c r="D22">
-        <v>-13.958710581568029</v>
+        <v>-14.07000000000002</v>
       </c>
       <c r="E22">
-        <v>2.2736338321292351</v>
+        <v>4.6668536861943721E-2</v>
       </c>
       <c r="F22">
-        <v>1.1289418431971399E-2</v>
+        <v>-1.9539925233402755E-14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B23">
-        <v>-11.92</v>
+        <v>-12.05</v>
       </c>
       <c r="C23">
-        <v>2652.2540673493181</v>
+        <v>2650.4703638588944</v>
       </c>
       <c r="D23">
-        <v>-11.939866297676758</v>
+        <v>-12.089278362936085</v>
       </c>
       <c r="E23">
-        <v>1.6540673493182112</v>
+        <v>0.37036385889450685</v>
       </c>
       <c r="F23">
-        <v>-1.9866297676758293E-2</v>
+        <v>-3.9278362936084221E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B24">
-        <v>-9.9499999999999993</v>
+        <v>-10.07</v>
       </c>
       <c r="C24">
-        <v>2651.8962358628146</v>
+        <v>2650.7510966173368</v>
       </c>
       <c r="D24">
-        <v>-9.9634689610168632</v>
+        <v>-10.134494271539328</v>
       </c>
       <c r="E24">
-        <v>1.2962358628146831</v>
+        <v>0.65109661733686153</v>
       </c>
       <c r="F24">
-        <v>-1.3468961016863901E-2</v>
+        <v>-6.4494271539327741E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B25">
-        <v>-7.92</v>
+        <v>-8.07</v>
       </c>
       <c r="C25">
-        <v>2653.0666371573138</v>
+        <v>2651.1448838388123</v>
       </c>
       <c r="D25">
-        <v>-7.9587632025021167</v>
+        <v>-8.1592814418982886</v>
       </c>
       <c r="E25">
-        <v>2.4666371573139259</v>
+        <v>1.0448838388124386</v>
       </c>
       <c r="F25">
-        <v>-3.8763202502116734E-2</v>
+        <v>-8.928144189828835E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B26">
-        <v>-5.92</v>
+        <v>-6.1</v>
       </c>
       <c r="C26">
-        <v>2652.0941049873595</v>
+        <v>2651.1488267468389</v>
       </c>
       <c r="D26">
-        <v>-5.974340191841355</v>
+        <v>-6.1576076424786272</v>
       </c>
       <c r="E26">
-        <v>1.4941049873596057</v>
+        <v>1.0488267468390404</v>
       </c>
       <c r="F26">
-        <v>-5.4340191841355079E-2</v>
+        <v>-5.7607642478627596E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B27">
-        <v>-3.95</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C27">
-        <v>2651.2387856516107</v>
+        <v>2649.3671813844471</v>
       </c>
       <c r="D27">
-        <v>-3.9701959612208526</v>
+        <v>-4.1429437140263126</v>
       </c>
       <c r="E27">
-        <v>0.6387856516107604</v>
+        <v>-0.73281861555278738</v>
       </c>
       <c r="F27">
-        <v>-2.0195961220852432E-2</v>
+        <v>-4.2943714026312918E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B28">
-        <v>-1.92</v>
+        <v>-2.08</v>
       </c>
       <c r="C28">
-        <v>2653.0819978012432</v>
+        <v>2650.3038113374046</v>
       </c>
       <c r="D28">
-        <v>-1.9395682884348551</v>
+        <v>-2.1094038232126739</v>
       </c>
       <c r="E28">
-        <v>2.4819978012433239</v>
+        <v>0.20381133740465884</v>
       </c>
       <c r="F28">
-        <v>-1.9568288434855141E-2</v>
+        <v>-2.9403823212673874E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B29">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="C29">
-        <v>2653.0271177696263</v>
+        <v>2649.8851160040053</v>
       </c>
       <c r="D29">
-        <v>5.8626919320774358E-2</v>
+        <v>-9.2609583185821229E-2</v>
       </c>
       <c r="E29">
-        <v>2.4271177696264203</v>
+        <v>-0.21488399599456898</v>
       </c>
       <c r="F29">
-        <v>8.6269193207743552E-3</v>
+        <v>-1.2609583185821227E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B30">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="C30">
-        <v>2651.9456617255423</v>
+        <v>2649.9222517575454</v>
       </c>
       <c r="D30">
-        <v>2.0928060779578681</v>
+        <v>1.9494758309964166</v>
       </c>
       <c r="E30">
-        <v>1.3456617255424135</v>
+        <v>-0.17774824245452692</v>
       </c>
       <c r="F30">
-        <v>1.2806077957868034E-2</v>
+        <v>2.9475830996416708E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B31">
-        <v>4.08</v>
+        <v>3.93</v>
       </c>
       <c r="C31">
-        <v>2652.933048922037</v>
+        <v>2650.4273113187082</v>
       </c>
       <c r="D31">
-        <v>4.0819982144950728</v>
+        <v>3.9781799522651369</v>
       </c>
       <c r="E31">
-        <v>2.3330489220370509</v>
+        <v>0.32731131870832542</v>
       </c>
       <c r="F31">
-        <v>1.9982144950727587E-3</v>
+        <v>4.8179952265136716E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B32">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="C32">
-        <v>2652.2241319909667</v>
+        <v>2650.2679161337819</v>
       </c>
       <c r="D32">
-        <v>6.0705842187500254</v>
+        <v>5.9781757046772617</v>
       </c>
       <c r="E32">
-        <v>1.6241319909668164</v>
+        <v>0.16791613378200054</v>
       </c>
       <c r="F32">
-        <v>-9.415781249974664E-3</v>
+        <v>7.8175704677261315E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B33">
-        <v>8.0500000000000007</v>
+        <v>7.93</v>
       </c>
       <c r="C33">
-        <v>2652.8955567033113</v>
+        <v>2649.9603972392683</v>
       </c>
       <c r="D33">
-        <v>8.0505928003884595</v>
+        <v>7.9968712024388982</v>
       </c>
       <c r="E33">
-        <v>2.2955567033113766</v>
+        <v>-0.13960276073157729</v>
       </c>
       <c r="F33">
-        <v>5.9280038845876959E-4</v>
+        <v>6.6871202438898436E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B34">
-        <v>10.08</v>
+        <v>9.93</v>
       </c>
       <c r="C34">
-        <v>2653.0116253104156</v>
+        <v>2650.2925339419503</v>
       </c>
       <c r="D34">
-        <v>10.078724098701002</v>
+        <v>9.9965378089233425</v>
       </c>
       <c r="E34">
-        <v>2.4116253104157295</v>
+        <v>0.19253394195038709</v>
       </c>
       <c r="F34">
-        <v>-1.2759012989977947E-3</v>
+        <v>6.6537808923342823E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B35">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="C35">
-        <v>2652.4524919109035</v>
+        <v>2649.0593291611663</v>
       </c>
       <c r="D35">
-        <v>12.054541904328557</v>
+        <v>11.974027327246795</v>
       </c>
       <c r="E35">
-        <v>1.8524919109036091</v>
+        <v>-1.0406708388336483</v>
       </c>
       <c r="F35">
-        <v>-4.5458095671442322E-2</v>
+        <v>2.4027327246795238E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B36">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="C36">
-        <v>2651.8626353646105</v>
+        <v>2649.5775204417755</v>
       </c>
       <c r="D36">
-        <v>13.996117677490306</v>
+        <v>13.936423646583327</v>
       </c>
       <c r="E36">
-        <v>1.2626353646105599</v>
+        <v>-0.52247955822440417</v>
       </c>
       <c r="F36">
-        <v>-0.10388232250969409</v>
+        <v>-1.3576353416672404E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2650.6</v>
+        <v>2650.1</v>
       </c>
       <c r="B37">
-        <v>16.079999999999998</v>
+        <v>15.97</v>
       </c>
       <c r="C37">
-        <v>2654.0204500398509</v>
+        <v>2651.7330811144134</v>
       </c>
       <c r="D37">
-        <v>15.938492909953336</v>
+        <v>15.870775618404785</v>
       </c>
       <c r="E37">
-        <v>3.4204500398509481</v>
+        <v>1.6330811144134714</v>
       </c>
       <c r="F37">
-        <v>-0.1415070900466624</v>
+        <v>-9.9224381595215405E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2753.3585817209969</v>
+        <v>2750.1266924735996</v>
       </c>
       <c r="D38">
-        <v>9.0397726781851328E-3</v>
+        <v>5.2485212830361483E-3</v>
       </c>
       <c r="E38">
-        <v>3.058581720996699</v>
+        <v>0.32669247359945075</v>
       </c>
       <c r="F38">
-        <v>9.0397726781851328E-3</v>
+        <v>5.2485212830361483E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B39">
-        <v>-16.100000000000001</v>
+        <v>-15.9</v>
       </c>
       <c r="C39">
-        <v>2753.6319073655977</v>
+        <v>2749.612978464957</v>
       </c>
       <c r="D39">
-        <v>-16.096111980767592</v>
+        <v>-15.827120831179167</v>
       </c>
       <c r="E39">
-        <v>3.3319073655975444</v>
+        <v>-0.1870215350431863</v>
       </c>
       <c r="F39">
-        <v>3.8880192324093343E-3</v>
+        <v>7.2879168820833229E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B40">
-        <v>-13.97</v>
+        <v>-14.1</v>
       </c>
       <c r="C40">
-        <v>2752.6165970426296</v>
+        <v>2750.374625772989</v>
       </c>
       <c r="D40">
-        <v>-13.947898636113154</v>
+        <v>-14.040863433933792</v>
       </c>
       <c r="E40">
-        <v>2.3165970426293825</v>
+        <v>0.57462577298883843</v>
       </c>
       <c r="F40">
-        <v>2.2101363886847025E-2</v>
+        <v>5.9136566066207763E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B41">
-        <v>-11.92</v>
+        <v>-12.05</v>
       </c>
       <c r="C41">
-        <v>2751.724813487328</v>
+        <v>2748.9936807792628</v>
       </c>
       <c r="D41">
-        <v>-11.941420178424613</v>
+        <v>-12.03159475681788</v>
       </c>
       <c r="E41">
-        <v>1.4248134873278104</v>
+        <v>-0.80631922073735041</v>
       </c>
       <c r="F41">
-        <v>-2.1420178424612857E-2</v>
+        <v>1.8405243182121112E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B42">
-        <v>-9.9499999999999993</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="C42">
-        <v>2750.9987604471444</v>
+        <v>2750.0818633114891</v>
       </c>
       <c r="D42">
-        <v>-9.9749027967312891</v>
+        <v>-10.100076709985428</v>
       </c>
       <c r="E42">
-        <v>0.6987604471441955</v>
+        <v>0.28186331148890531</v>
       </c>
       <c r="F42">
-        <v>-2.4902796731289811E-2</v>
+        <v>-5.007670998542757E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B43">
-        <v>-7.92</v>
+        <v>-8.07</v>
       </c>
       <c r="C43">
-        <v>2752.9770793193638</v>
+        <v>2749.9835404617788</v>
       </c>
       <c r="D43">
-        <v>-7.9456645998700521</v>
+        <v>-8.1353256633309563</v>
       </c>
       <c r="E43">
-        <v>2.6770793193636564</v>
+        <v>0.18354046177864802</v>
       </c>
       <c r="F43">
-        <v>-2.5664599870052207E-2</v>
+        <v>-6.5325663330956019E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B44">
-        <v>-5.95</v>
+        <v>-6.1</v>
       </c>
       <c r="C44">
-        <v>2751.5096791843807</v>
+        <v>2750.3323073960705</v>
       </c>
       <c r="D44">
-        <v>-5.9671525601353892</v>
+        <v>-6.1571635321821399</v>
       </c>
       <c r="E44">
-        <v>1.2096791843805477</v>
+        <v>0.53230739607033684</v>
       </c>
       <c r="F44">
-        <v>-1.7152560135389017E-2</v>
+        <v>-5.7163532182140209E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B45">
-        <v>-3.92</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C45">
-        <v>2751.7485478009667</v>
+        <v>2749.8723567699644</v>
       </c>
       <c r="D45">
-        <v>-3.9377396605514012</v>
+        <v>-4.134121922935293</v>
       </c>
       <c r="E45">
-        <v>1.4485478009664803</v>
+        <v>7.235676996424445E-2</v>
       </c>
       <c r="F45">
-        <v>-1.7739660551401304E-2</v>
+        <v>-3.412192293529337E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B46">
-        <v>-1.92</v>
+        <v>-2.08</v>
       </c>
       <c r="C46">
-        <v>2752.537804997186</v>
+        <v>2750.5049491611048</v>
       </c>
       <c r="D46">
-        <v>-1.9515399769043127</v>
+        <v>-2.1012138733515049</v>
       </c>
       <c r="E46">
-        <v>2.2378049971857763</v>
+        <v>0.70494916110465056</v>
       </c>
       <c r="F46">
-        <v>-3.1539976904312761E-2</v>
+        <v>-2.1213873351504819E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B47">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="C47">
-        <v>2753.6763431489712</v>
+        <v>2750.2238749920307</v>
       </c>
       <c r="D47">
-        <v>5.5085398849771136E-2</v>
+        <v>-8.3473839217142798E-2</v>
       </c>
       <c r="E47">
-        <v>3.3763431489710456</v>
+        <v>0.42387499203050538</v>
       </c>
       <c r="F47">
-        <v>5.0853988497711333E-3</v>
+        <v>-3.4738392171427962E-3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B48">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="C48">
-        <v>2751.9855658877336</v>
+        <v>2749.2751795898057</v>
       </c>
       <c r="D48">
-        <v>2.0838619358971386</v>
+        <v>1.9481340868812422</v>
       </c>
       <c r="E48">
-        <v>1.6855658877334463</v>
+        <v>-0.52482041019447934</v>
       </c>
       <c r="F48">
-        <v>3.8619358971385687E-3</v>
+        <v>2.8134086881242304E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B49">
-        <v>4.08</v>
+        <v>3.93</v>
       </c>
       <c r="C49">
-        <v>2752.0279191521772</v>
+        <v>2749.5553431906201</v>
       </c>
       <c r="D49">
-        <v>4.0759648096503112</v>
+        <v>3.9715874338080348</v>
       </c>
       <c r="E49">
-        <v>1.7279191521770372</v>
+        <v>-0.24465680938010337</v>
       </c>
       <c r="F49">
-        <v>-4.0351903496889108E-3</v>
+        <v>4.1587433808034646E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B50">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="C50">
-        <v>2752.545338067031</v>
+        <v>2749.6631672994672</v>
       </c>
       <c r="D50">
-        <v>6.0745595159490202</v>
+        <v>5.9656250510401669</v>
       </c>
       <c r="E50">
-        <v>2.2453380670308434</v>
+        <v>-0.13683270053297747</v>
       </c>
       <c r="F50">
-        <v>-5.4404840509798547E-3</v>
+        <v>6.5625051040166582E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B51">
-        <v>8.0500000000000007</v>
+        <v>7.93</v>
       </c>
       <c r="C51">
-        <v>2753.0572836623301</v>
+        <v>2749.6535719574617</v>
       </c>
       <c r="D51">
-        <v>8.0487471843568308</v>
+        <v>7.9839246474217145</v>
       </c>
       <c r="E51">
-        <v>2.7572836623298826</v>
+        <v>-0.14642804253844588</v>
       </c>
       <c r="F51">
-        <v>-1.2528156431699244E-3</v>
+        <v>5.3924647421714766E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B52">
-        <v>10.08</v>
+        <v>9.93</v>
       </c>
       <c r="C52">
-        <v>2752.9572499006058</v>
+        <v>2749.4415263723704</v>
       </c>
       <c r="D52">
-        <v>10.081767359646468</v>
+        <v>9.9874458192023017</v>
       </c>
       <c r="E52">
-        <v>2.6572499006056205</v>
+        <v>-0.35847362762979174</v>
       </c>
       <c r="F52">
-        <v>1.7673596464682362E-3</v>
+        <v>5.7445819202301962E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B53">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="C53">
-        <v>2752.0869622998612</v>
+        <v>2749.4096650611405</v>
       </c>
       <c r="D53">
-        <v>12.037427595227014</v>
+        <v>11.949999999999996</v>
       </c>
       <c r="E53">
-        <v>1.7869622998609884</v>
+        <v>-0.39033493885972348</v>
       </c>
       <c r="F53">
-        <v>-6.257240477298609E-2</v>
+        <v>-3.5527136788005009E-15</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B54">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="C54">
-        <v>2752.5297016316981</v>
+        <v>2750.0793050474708</v>
       </c>
       <c r="D54">
-        <v>13.9976863854257</v>
+        <v>13.900990411348143</v>
       </c>
       <c r="E54">
-        <v>2.2297016316979352</v>
+        <v>0.27930504747064333</v>
       </c>
       <c r="F54">
-        <v>-0.10231361457429955</v>
+        <v>-4.9009588651856006E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2750.3</v>
+        <v>2749.8</v>
       </c>
       <c r="B55">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="C55">
-        <v>2752.492869601575</v>
+        <v>2750.7538588820753</v>
       </c>
       <c r="D55">
-        <v>15.929827986093096</v>
+        <v>15.840454279572628</v>
       </c>
       <c r="E55">
-        <v>2.1928696015747846</v>
+        <v>0.95385888207511016</v>
       </c>
       <c r="F55">
-        <v>-0.17017201390690495</v>
+        <v>-0.12954572042737311</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2850.366355163585</v>
+        <v>2848.8390434001544</v>
       </c>
       <c r="D56">
-        <v>1.001303558738207E-2</v>
+        <v>1.2403651808405029E-2</v>
       </c>
       <c r="E56">
-        <v>0.36635516358501263</v>
+        <v>-0.66095659984557642</v>
       </c>
       <c r="F56">
-        <v>1.001303558738207E-2</v>
+        <v>1.2403651808405029E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B57">
-        <v>-16.100000000000001</v>
+        <v>-15.9</v>
       </c>
       <c r="C57">
-        <v>2852.114550187142</v>
+        <v>2849.8098500081292</v>
       </c>
       <c r="D57">
-        <v>-16.104859582620424</v>
+        <v>-15.790578766958992</v>
       </c>
       <c r="E57">
-        <v>2.1145501871419583</v>
+        <v>0.30985000812916041</v>
       </c>
       <c r="F57">
-        <v>-4.8595826204227421E-3</v>
+        <v>0.10942123304100804</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B58">
-        <v>-13.97</v>
+        <v>-14.1</v>
       </c>
       <c r="C58">
-        <v>2851.435838943773</v>
+        <v>2849.2623001431393</v>
       </c>
       <c r="D58">
-        <v>-13.956240869749957</v>
+        <v>-14.022437498241038</v>
       </c>
       <c r="E58">
-        <v>1.4358389437729784</v>
+        <v>-0.2376998568606723</v>
       </c>
       <c r="F58">
-        <v>1.3759130250043938E-2</v>
+        <v>7.7562501758961844E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B59">
-        <v>-11.92</v>
+        <v>-12.05</v>
       </c>
       <c r="C59">
-        <v>2851.3695080917682</v>
+        <v>2848.6192479911906</v>
       </c>
       <c r="D59">
-        <v>-11.951923930665497</v>
+        <v>-12.020854084794182</v>
       </c>
       <c r="E59">
-        <v>1.369508091768239</v>
+        <v>-0.88075200880939519</v>
       </c>
       <c r="F59">
-        <v>-3.192393066549748E-2</v>
+        <v>2.914591520581844E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B60">
-        <v>-9.9499999999999993</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="C60">
-        <v>2849.8987594052514</v>
+        <v>2850.2966525972315</v>
       </c>
       <c r="D60">
-        <v>-9.9704852891555831</v>
+        <v>-10.088480624733293</v>
       </c>
       <c r="E60">
-        <v>-0.1012405947485604</v>
+        <v>0.79665259723151394</v>
       </c>
       <c r="F60">
-        <v>-2.0485289155583786E-2</v>
+        <v>-3.8480624733292501E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B61">
-        <v>-7.92</v>
+        <v>-8.07</v>
       </c>
       <c r="C61">
-        <v>2850.9488996387668</v>
+        <v>2848.6663673612584</v>
       </c>
       <c r="D61">
-        <v>-7.9651801811631868</v>
+        <v>-8.118359517700025</v>
       </c>
       <c r="E61">
-        <v>0.9488996387667612</v>
+        <v>-0.8336326387416193</v>
       </c>
       <c r="F61">
-        <v>-4.5180181163186894E-2</v>
+        <v>-4.8359517700024668E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B62">
-        <v>-5.92</v>
+        <v>-6.1</v>
       </c>
       <c r="C62">
-        <v>2851.0418814661275</v>
+        <v>2849.1642076949543</v>
       </c>
       <c r="D62">
-        <v>-5.9638182047133057</v>
+        <v>-6.1377860454074984</v>
       </c>
       <c r="E62">
-        <v>1.0418814661275064</v>
+        <v>-0.33579230504574298</v>
       </c>
       <c r="F62">
-        <v>-4.3818204713305775E-2</v>
+        <v>-3.7786045407498747E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B63">
-        <v>-3.95</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C63">
-        <v>2851.3552060006664</v>
+        <v>2849.0032808360957</v>
       </c>
       <c r="D63">
-        <v>-3.9815946765565227</v>
+        <v>-4.1250661562361861</v>
       </c>
       <c r="E63">
-        <v>1.3552060006663851</v>
+        <v>-0.4967191639043449</v>
       </c>
       <c r="F63">
-        <v>-3.1594676556522483E-2</v>
+        <v>-2.5066156236186465E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B64">
-        <v>-1.92</v>
+        <v>-2.08</v>
       </c>
       <c r="C64">
-        <v>2850.3379943276313</v>
+        <v>2849.516174966876</v>
       </c>
       <c r="D64">
-        <v>-1.9516267485962264</v>
+        <v>-2.1003449953386619</v>
       </c>
       <c r="E64">
-        <v>0.33799432763134973</v>
+        <v>1.6174966875951213E-2</v>
       </c>
       <c r="F64">
-        <v>-3.1626748596226495E-2</v>
+        <v>-2.0344995338661853E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B65">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="C65">
-        <v>2850.4007351061332</v>
+        <v>2849.3108860659954</v>
       </c>
       <c r="D65">
-        <v>5.387003842442465E-2</v>
+        <v>-9.8706012792881492E-2</v>
       </c>
       <c r="E65">
-        <v>0.40073510613319741</v>
+        <v>-0.1891139340045811</v>
       </c>
       <c r="F65">
-        <v>3.8700384244246475E-3</v>
+        <v>-1.8706012792881491E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B66">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="C66">
-        <v>2851.5000356127962</v>
+        <v>2850.6000719304916</v>
       </c>
       <c r="D66">
-        <v>2.0620976462296663</v>
+        <v>1.9362269908974676</v>
       </c>
       <c r="E66">
-        <v>1.5000356127961822</v>
+        <v>1.1000719304915947</v>
       </c>
       <c r="F66">
-        <v>-1.7902353770333779E-2</v>
+        <v>1.6226990897467708E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B67">
-        <v>4.08</v>
+        <v>3.93</v>
       </c>
       <c r="C67">
-        <v>2851.0538329401124</v>
+        <v>2850.6303774758876</v>
       </c>
       <c r="D67">
-        <v>4.0650422987081987</v>
+        <v>3.961447055700325</v>
       </c>
       <c r="E67">
-        <v>1.0538329401124429</v>
+        <v>1.1303774758875988</v>
       </c>
       <c r="F67">
-        <v>-1.4957701291801406E-2</v>
+        <v>3.14470557003248E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B68">
-        <v>6.08</v>
+        <v>5.9</v>
       </c>
       <c r="C68">
-        <v>2853.1924418599961</v>
+        <v>2849.0967386367124</v>
       </c>
       <c r="D68">
-        <v>6.0559027141120563</v>
+        <v>5.9625347285079942</v>
       </c>
       <c r="E68">
-        <v>3.1924418599960518</v>
+        <v>-0.40326136328758366</v>
       </c>
       <c r="F68">
-        <v>-2.4097285887943798E-2</v>
+        <v>6.2534728507993798E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B69">
-        <v>8.0500000000000007</v>
+        <v>7.93</v>
       </c>
       <c r="C69">
-        <v>2851.8826772658526</v>
+        <v>2850.1280295745241</v>
       </c>
       <c r="D69">
-        <v>8.0417189006598626</v>
+        <v>7.9665951484029849</v>
       </c>
       <c r="E69">
-        <v>1.8826772658526352</v>
+        <v>0.62802957452413466</v>
       </c>
       <c r="F69">
-        <v>-8.2810993401380983E-3</v>
+        <v>3.6595148402985167E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B70">
-        <v>10.08</v>
+        <v>9.93</v>
       </c>
       <c r="C70">
-        <v>2850.4245809198919</v>
+        <v>2849.3795356357955</v>
       </c>
       <c r="D70">
-        <v>10.067210326036927</v>
+        <v>9.9442275521690302</v>
       </c>
       <c r="E70">
-        <v>0.42458091989192326</v>
+        <v>-0.12046436420450846</v>
       </c>
       <c r="F70">
-        <v>-1.2789673963073511E-2</v>
+        <v>1.4227552169030488E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B71">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="C71">
-        <v>2851.4622004250245</v>
+        <v>2848.1059483446647</v>
       </c>
       <c r="D71">
-        <v>12.038079451205146</v>
+        <v>11.932431455255037</v>
       </c>
       <c r="E71">
-        <v>1.4622004250245482</v>
+        <v>-1.3940516553352609</v>
       </c>
       <c r="F71">
-        <v>-6.1920548794853758E-2</v>
+        <v>-1.7568544744962722E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B72">
-        <v>14.1</v>
+        <v>13.95</v>
       </c>
       <c r="C72">
-        <v>2851.082985550072</v>
+        <v>2849.4360748626877</v>
       </c>
       <c r="D72">
-        <v>13.995316351397284</v>
+        <v>13.875677673147843</v>
       </c>
       <c r="E72">
-        <v>1.0829855500719532</v>
+        <v>-6.3925137312253355E-2</v>
       </c>
       <c r="F72">
-        <v>-0.10468364860271606</v>
+        <v>-7.4322326852156451E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2850</v>
+        <v>2849.5</v>
       </c>
       <c r="B73">
-        <v>16.100000000000001</v>
+        <v>15.97</v>
       </c>
       <c r="C73">
-        <v>2850.5906049324331</v>
+        <v>2850.2189802886919</v>
       </c>
       <c r="D73">
-        <v>15.927435154754537</v>
+        <v>15.816899981057274</v>
       </c>
       <c r="E73">
-        <v>0.59060493243305245</v>
+        <v>0.71898028869190966</v>
       </c>
       <c r="F73">
-        <v>-0.17256484524546423</v>
+        <v>-0.15310001894272673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2949.2</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>2950.7104475879792</v>
+      </c>
+      <c r="D74">
+        <v>1.4879995975111101E-2</v>
+      </c>
+      <c r="E74">
+        <v>1.5104475879793426</v>
+      </c>
+      <c r="F74">
+        <v>1.4879995975111101E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2949.2</v>
+      </c>
+      <c r="B75">
+        <v>-15.9</v>
+      </c>
+      <c r="C75">
+        <v>2948.6203887089787</v>
+      </c>
+      <c r="D75">
+        <v>-15.76559241100929</v>
+      </c>
+      <c r="E75">
+        <v>-0.57961129102113773</v>
+      </c>
+      <c r="F75">
+        <v>0.13440758899070993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2949.2</v>
+      </c>
+      <c r="B76">
+        <v>-14.1</v>
+      </c>
+      <c r="C76">
+        <v>2949.1792102007598</v>
+      </c>
+      <c r="D76">
+        <v>-13.994067069332408</v>
+      </c>
+      <c r="E76">
+        <v>-2.0789799239992135E-2</v>
+      </c>
+      <c r="F76">
+        <v>0.10593293066759202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2949.2</v>
+      </c>
+      <c r="B77">
+        <v>-12.05</v>
+      </c>
+      <c r="C77">
+        <v>2947.745583148298</v>
+      </c>
+      <c r="D77">
+        <v>-11.995935183795245</v>
+      </c>
+      <c r="E77">
+        <v>-1.4544168517018079</v>
+      </c>
+      <c r="F77">
+        <v>5.4064816204755672E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2949.2</v>
+      </c>
+      <c r="B78">
+        <v>-10.050000000000001</v>
+      </c>
+      <c r="C78">
+        <v>2949.6736251312977</v>
+      </c>
+      <c r="D78">
+        <v>-10.058192808356788</v>
+      </c>
+      <c r="E78">
+        <v>0.47362513129792205</v>
+      </c>
+      <c r="F78">
+        <v>-8.1928083567870402E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2949.2</v>
+      </c>
+      <c r="B79">
+        <v>-8.07</v>
+      </c>
+      <c r="C79">
+        <v>2948.6141209947905</v>
+      </c>
+      <c r="D79">
+        <v>-8.109967637619615</v>
+      </c>
+      <c r="E79">
+        <v>-0.58587900520933545</v>
+      </c>
+      <c r="F79">
+        <v>-3.9967637619614749E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2949.2</v>
+      </c>
+      <c r="B80">
+        <v>-6.1</v>
+      </c>
+      <c r="C80">
+        <v>2949.0626256158762</v>
+      </c>
+      <c r="D80">
+        <v>-6.1277406219173018</v>
+      </c>
+      <c r="E80">
+        <v>-0.1373743841236319</v>
+      </c>
+      <c r="F80">
+        <v>-2.77406219173022E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2949.2</v>
+      </c>
+      <c r="B81">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="C81">
+        <v>2948.2847255465658</v>
+      </c>
+      <c r="D81">
+        <v>-4.1116287558878044</v>
+      </c>
+      <c r="E81">
+        <v>-0.91527445343399449</v>
+      </c>
+      <c r="F81">
+        <v>-1.1628755887804765E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2949.2</v>
+      </c>
+      <c r="B82">
+        <v>-2.08</v>
+      </c>
+      <c r="C82">
+        <v>2950.8164492952656</v>
+      </c>
+      <c r="D82">
+        <v>-2.0994156296541346</v>
+      </c>
+      <c r="E82">
+        <v>1.6164492952657383</v>
+      </c>
+      <c r="F82">
+        <v>-1.941562965413457E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2949.2</v>
+      </c>
+      <c r="B83">
+        <v>-0.08</v>
+      </c>
+      <c r="C83">
+        <v>2950.551106061373</v>
+      </c>
+      <c r="D83">
+        <v>-8.0000000000008134E-2</v>
+      </c>
+      <c r="E83">
+        <v>1.3511060613732297</v>
+      </c>
+      <c r="F83">
+        <v>-8.1323836553792717E-15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2949.2</v>
+      </c>
+      <c r="B84">
+        <v>1.92</v>
+      </c>
+      <c r="C84">
+        <v>2949.0575486294406</v>
+      </c>
+      <c r="D84">
+        <v>1.9336146689402647</v>
+      </c>
+      <c r="E84">
+        <v>-0.14245137055922896</v>
+      </c>
+      <c r="F84">
+        <v>1.3614668940264751E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2949.2</v>
+      </c>
+      <c r="B85">
+        <v>3.93</v>
+      </c>
+      <c r="C85">
+        <v>2948.5400752121609</v>
+      </c>
+      <c r="D85">
+        <v>3.9646902637840271</v>
+      </c>
+      <c r="E85">
+        <v>-0.65992478783891784</v>
+      </c>
+      <c r="F85">
+        <v>3.4690263784026953E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2949.2</v>
+      </c>
+      <c r="B86">
+        <v>5.9</v>
+      </c>
+      <c r="C86">
+        <v>2949.2252180391256</v>
+      </c>
+      <c r="D86">
+        <v>5.9530829706181612</v>
+      </c>
+      <c r="E86">
+        <v>2.5218039125775249E-2</v>
+      </c>
+      <c r="F86">
+        <v>5.3082970618160807E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2949.2</v>
+      </c>
+      <c r="B87">
+        <v>7.93</v>
+      </c>
+      <c r="C87">
+        <v>2948.2502494593541</v>
+      </c>
+      <c r="D87">
+        <v>7.9584827884931668</v>
+      </c>
+      <c r="E87">
+        <v>-0.94975054064570941</v>
+      </c>
+      <c r="F87">
+        <v>2.8482788493167099E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2949.2</v>
+      </c>
+      <c r="B88">
+        <v>9.93</v>
+      </c>
+      <c r="C88">
+        <v>2949.47799237456</v>
+      </c>
+      <c r="D88">
+        <v>9.9263428882936875</v>
+      </c>
+      <c r="E88">
+        <v>0.2779923745601991</v>
+      </c>
+      <c r="F88">
+        <v>-3.6571117063122216E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2949.2</v>
+      </c>
+      <c r="B89">
+        <v>11.95</v>
+      </c>
+      <c r="C89">
+        <v>2948.4179006741388</v>
+      </c>
+      <c r="D89">
+        <v>11.91561618346365</v>
+      </c>
+      <c r="E89">
+        <v>-0.78209932586105424</v>
+      </c>
+      <c r="F89">
+        <v>-3.4383816536349698E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2949.2</v>
+      </c>
+      <c r="B90">
+        <v>13.95</v>
+      </c>
+      <c r="C90">
+        <v>2948.1392235052276</v>
+      </c>
+      <c r="D90">
+        <v>13.852135181544416</v>
+      </c>
+      <c r="E90">
+        <v>-1.0607764947721989</v>
+      </c>
+      <c r="F90">
+        <v>-9.7864818455583702E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2949.2</v>
+      </c>
+      <c r="B91">
+        <v>15.97</v>
+      </c>
+      <c r="C91">
+        <v>2949.8049148454329</v>
+      </c>
+      <c r="D91">
+        <v>15.797021999126999</v>
+      </c>
+      <c r="E91">
+        <v>0.60491484543308616</v>
+      </c>
+      <c r="F91">
+        <v>-0.17297800087300175</v>
       </c>
     </row>
   </sheetData>
